--- a/outputs/04_metrics_train.xlsx
+++ b/outputs/04_metrics_train.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8119111111111111</v>
+        <v>0.8065777777777777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6716417910447762</v>
+        <v>0.6606156274664562</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5719063545150501</v>
+        <v>0.559866220735786</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8987893462469734</v>
+        <v>0.8958837772397095</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6177745664739884</v>
+        <v>0.6060825488776249</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8602704738150575</v>
+        <v>0.8496708155514345</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.7994666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.6203278688524591</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.6327759197324415</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.8598062953995157</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.6264900662251656</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.8363137010373562</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.8028444444444445</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.5906103286384976</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.8414715719063545</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.7888619854721549</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.6940689655172414</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.8991863920898556</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8156444444444444</v>
+        <v>0.8110222222222222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.708941605839416</v>
+        <v>0.7037735849056603</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5197324414715719</v>
+        <v>0.4989966555183947</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9227602905569007</v>
+        <v>0.9239709443099273</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5997684291779236</v>
+        <v>0.5839530332681018</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8767891356984945</v>
+        <v>0.8642903301562107</v>
       </c>
     </row>
   </sheetData>
